--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:56:04+00:00</t>
+    <t>2025-09-22T15:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:02:16+00:00</t>
+    <t>2025-09-22T15:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:17:20+00:00</t>
+    <t>2025-09-23T07:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:36:32+00:00</t>
+    <t>2025-09-23T07:37:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:37:47+00:00</t>
+    <t>2025-09-23T07:40:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:40:32+00:00</t>
+    <t>2025-09-23T07:47:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:47:43+00:00</t>
+    <t>2025-09-23T07:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T07:58:18+00:00</t>
+    <t>2025-09-23T13:20:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:20:55+00:00</t>
+    <t>2025-09-23T13:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:42:36+00:00</t>
+    <t>2025-09-23T13:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/nr-update-poso-examples/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:47:27+00:00</t>
+    <t>2025-09-23T14:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
